--- a/TharaList/voters.xlsx
+++ b/TharaList/voters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hemang\Election\Chuduvalathur Ward List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D5D407-C96A-41F0-8B2F-FFA477547859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B5727-E1AE-4F63-AA37-28FDB58DFF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="651">
   <si>
     <t>അഭിമന്യു വി</t>
   </si>
@@ -1949,6 +1949,45 @@
   </si>
   <si>
     <t>തെക്കേക്കരമേൽ ഹൌസ്</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>Anoop</t>
+  </si>
+  <si>
+    <t>Sujesh</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Ratheesh</t>
+  </si>
+  <si>
+    <t>Arun Ashokan</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Arun Kuttan</t>
+  </si>
+  <si>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t>Sherin</t>
+  </si>
+  <si>
+    <t>Aiswarya</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Sumesh</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2425,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R8"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3807,7 +3846,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999"/>
@@ -3844,8 +3883,12 @@
       <c r="E1" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>641</v>
+      </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
@@ -3865,8 +3908,12 @@
       <c r="E2" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
     </row>
@@ -3886,6 +3933,12 @@
       <c r="E3" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="4">
@@ -3903,6 +3956,12 @@
       <c r="E4" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="4">
@@ -3920,6 +3979,12 @@
       <c r="E5" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="4">
@@ -3937,6 +4002,12 @@
       <c r="E6" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="4">
@@ -3954,6 +4025,12 @@
       <c r="E7" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="4">
@@ -3971,6 +4048,12 @@
       <c r="E8" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="4">
@@ -3988,6 +4071,12 @@
       <c r="E9" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="4">
@@ -4005,6 +4094,12 @@
       <c r="E10" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="4">
@@ -4022,6 +4117,12 @@
       <c r="E11" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="4">
@@ -4039,6 +4140,12 @@
       <c r="E12" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="4">
@@ -4056,6 +4163,12 @@
       <c r="E13" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="4">
@@ -4073,6 +4186,12 @@
       <c r="E14" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="4">
@@ -4090,6 +4209,12 @@
       <c r="E15" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="4">
@@ -4107,8 +4232,14 @@
       <c r="E16" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F16" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4124,8 +4255,14 @@
       <c r="E17" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F17" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4141,8 +4278,14 @@
       <c r="E18" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F18" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4158,8 +4301,14 @@
       <c r="E19" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F19" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4175,8 +4324,14 @@
       <c r="E20" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F20" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4192,8 +4347,14 @@
       <c r="E21" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F21" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4209,8 +4370,14 @@
       <c r="E22" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F22" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4226,8 +4393,14 @@
       <c r="E23" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F23" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4243,8 +4416,14 @@
       <c r="E24" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F24" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4260,8 +4439,14 @@
       <c r="E25" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F25" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4277,8 +4462,14 @@
       <c r="E26" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F26" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4294,8 +4485,14 @@
       <c r="E27" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F27" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4311,8 +4508,14 @@
       <c r="E28" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F28" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4328,8 +4531,14 @@
       <c r="E29" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F29" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4345,8 +4554,14 @@
       <c r="E30" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F30" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4362,8 +4577,14 @@
       <c r="E31" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F31" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4379,8 +4600,14 @@
       <c r="E32" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F32" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4396,8 +4623,14 @@
       <c r="E33" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F33" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4413,8 +4646,14 @@
       <c r="E34" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F34" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4430,8 +4669,14 @@
       <c r="E35" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F35" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4447,8 +4692,14 @@
       <c r="E36" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F36" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4464,8 +4715,14 @@
       <c r="E37" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F37" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4481,8 +4738,14 @@
       <c r="E38" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F38" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4498,8 +4761,14 @@
       <c r="E39" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F39" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4515,8 +4784,14 @@
       <c r="E40" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F40" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4532,8 +4807,14 @@
       <c r="E41" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F41" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4549,8 +4830,14 @@
       <c r="E42" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F42" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4566,8 +4853,14 @@
       <c r="E43" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F43" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4583,8 +4876,14 @@
       <c r="E44" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F44" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4600,8 +4899,14 @@
       <c r="E45" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F45" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4617,8 +4922,14 @@
       <c r="E46" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F46" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4634,8 +4945,14 @@
       <c r="E47" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F47" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4651,8 +4968,14 @@
       <c r="E48" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F48" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4668,8 +4991,14 @@
       <c r="E49" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F49" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4685,8 +5014,14 @@
       <c r="E50" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F50" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4702,8 +5037,14 @@
       <c r="E51" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F51" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4719,8 +5060,14 @@
       <c r="E52" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F52" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4736,8 +5083,14 @@
       <c r="E53" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F53" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4753,8 +5106,14 @@
       <c r="E54" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F54" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4770,8 +5129,14 @@
       <c r="E55" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F55" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4787,8 +5152,14 @@
       <c r="E56" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F56" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4804,8 +5175,14 @@
       <c r="E57" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F57" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4821,8 +5198,14 @@
       <c r="E58" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F58" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4838,8 +5221,14 @@
       <c r="E59" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F59" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4855,8 +5244,14 @@
       <c r="E60" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F60" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4872,8 +5267,14 @@
       <c r="E61" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F61" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4889,8 +5290,14 @@
       <c r="E62" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F62" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4906,8 +5313,14 @@
       <c r="E63" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F63" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4923,8 +5336,14 @@
       <c r="E64" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F64" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4940,8 +5359,14 @@
       <c r="E65" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F65" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4957,8 +5382,14 @@
       <c r="E66" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F66" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4974,8 +5405,14 @@
       <c r="E67" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F67" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4991,8 +5428,14 @@
       <c r="E68" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F68" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -5008,8 +5451,14 @@
       <c r="E69" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F69" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -5025,8 +5474,14 @@
       <c r="E70" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F70" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -5042,8 +5497,14 @@
       <c r="E71" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F71" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -5059,8 +5520,14 @@
       <c r="E72" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F72" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -5076,8 +5543,14 @@
       <c r="E73" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F73" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -5093,8 +5566,14 @@
       <c r="E74" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F74" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -5110,8 +5589,14 @@
       <c r="E75" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F75" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -5127,8 +5612,14 @@
       <c r="E76" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F76" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -5144,8 +5635,14 @@
       <c r="E77" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F77" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -5161,8 +5658,14 @@
       <c r="E78" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F78" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -5178,8 +5681,14 @@
       <c r="E79" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F79" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5195,8 +5704,14 @@
       <c r="E80" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F80" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5212,8 +5727,14 @@
       <c r="E81" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F81" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5229,8 +5750,14 @@
       <c r="E82" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F82" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5246,8 +5773,14 @@
       <c r="E83" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F83" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5263,8 +5796,14 @@
       <c r="E84" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F84" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5280,8 +5819,14 @@
       <c r="E85" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F85" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5297,8 +5842,14 @@
       <c r="E86" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F86" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5314,8 +5865,14 @@
       <c r="E87" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F87" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5331,8 +5888,14 @@
       <c r="E88" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F88" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5348,8 +5911,14 @@
       <c r="E89" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F89" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5365,8 +5934,14 @@
       <c r="E90" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F90" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5382,8 +5957,14 @@
       <c r="E91" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F91" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5399,8 +5980,14 @@
       <c r="E92" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F92" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5416,8 +6003,14 @@
       <c r="E93" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F93" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5433,8 +6026,14 @@
       <c r="E94" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F94" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5450,8 +6049,14 @@
       <c r="E95" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="F95" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5466,6 +6071,12 @@
       </c>
       <c r="E96" s="4" t="s">
         <v>618</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="18.600000000000001" customHeight="1">
@@ -5484,6 +6095,12 @@
       <c r="E97" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F97" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A98" s="4">
@@ -5501,6 +6118,12 @@
       <c r="E98" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F98" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A99" s="4">
@@ -5518,6 +6141,12 @@
       <c r="E99" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F99" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A100" s="4">
@@ -5535,6 +6164,12 @@
       <c r="E100" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F100" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A101" s="4">
@@ -5552,6 +6187,12 @@
       <c r="E101" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F101" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A102" s="4">
@@ -5569,6 +6210,12 @@
       <c r="E102" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F102" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A103" s="4">
@@ -5586,6 +6233,12 @@
       <c r="E103" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F103" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A104" s="4">
@@ -5603,6 +6256,12 @@
       <c r="E104" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F104" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A105" s="4">
@@ -5620,6 +6279,12 @@
       <c r="E105" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="F105" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A106" s="4">
@@ -5636,6 +6301,12 @@
       </c>
       <c r="E106" s="4" t="s">
         <v>618</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G106" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="18.600000000000001" customHeight="1"/>
@@ -6975,10 +7646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6988,9 +7659,11 @@
     <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>601</v>
       </c>
@@ -7006,8 +7679,14 @@
       <c r="E1" s="16" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="F1" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -7023,8 +7702,14 @@
       <c r="E2" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999">
+      <c r="F2" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -7040,8 +7725,14 @@
       <c r="E3" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999">
+      <c r="F3" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -7057,8 +7748,14 @@
       <c r="E4" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+      <c r="F4" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7074,8 +7771,14 @@
       <c r="E5" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+      <c r="F5" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7091,8 +7794,14 @@
       <c r="E6" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+      <c r="F6" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7108,8 +7817,14 @@
       <c r="E7" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+      <c r="F7" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7125,8 +7840,14 @@
       <c r="E8" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+      <c r="F8" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -7142,8 +7863,14 @@
       <c r="E9" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999">
+      <c r="F9" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7159,8 +7886,14 @@
       <c r="E10" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="F10" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7176,8 +7909,14 @@
       <c r="E11" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
+      <c r="F11" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7193,8 +7932,14 @@
       <c r="E12" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999">
+      <c r="F12" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -7210,8 +7955,14 @@
       <c r="E13" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999">
+      <c r="F13" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7227,8 +7978,14 @@
       <c r="E14" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999">
+      <c r="F14" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7244,8 +8001,14 @@
       <c r="E15" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999">
+      <c r="F15" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7261,8 +8024,14 @@
       <c r="E16" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999">
+      <c r="F16" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.399999999999999">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -7278,8 +8047,14 @@
       <c r="E17" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="F17" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.399999999999999">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7295,8 +8070,14 @@
       <c r="E18" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
+      <c r="F18" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7312,8 +8093,14 @@
       <c r="E19" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
+      <c r="F19" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.399999999999999">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7329,8 +8116,14 @@
       <c r="E20" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999">
+      <c r="F20" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7346,8 +8139,14 @@
       <c r="E21" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999">
+      <c r="F21" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.399999999999999">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7363,8 +8162,14 @@
       <c r="E22" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999">
+      <c r="F22" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7380,8 +8185,14 @@
       <c r="E23" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999">
+      <c r="F23" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.399999999999999">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7397,8 +8208,14 @@
       <c r="E24" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999">
+      <c r="F24" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.399999999999999">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7414,8 +8231,14 @@
       <c r="E25" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999">
+      <c r="F25" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.399999999999999">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7431,8 +8254,14 @@
       <c r="E26" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999">
+      <c r="F26" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -7448,8 +8277,14 @@
       <c r="E27" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999">
+      <c r="F27" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.399999999999999">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -7465,8 +8300,14 @@
       <c r="E28" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999">
+      <c r="F28" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.399999999999999">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -7482,8 +8323,14 @@
       <c r="E29" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.399999999999999">
+      <c r="F29" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7499,8 +8346,14 @@
       <c r="E30" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999">
+      <c r="F30" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.399999999999999">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -7516,8 +8369,14 @@
       <c r="E31" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.399999999999999">
+      <c r="F31" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -7533,8 +8392,14 @@
       <c r="E32" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.399999999999999">
+      <c r="F32" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -7550,8 +8415,14 @@
       <c r="E33" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.399999999999999">
+      <c r="F33" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.399999999999999">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -7567,8 +8438,14 @@
       <c r="E34" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.399999999999999">
+      <c r="F34" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -7584,8 +8461,14 @@
       <c r="E35" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.399999999999999">
+      <c r="F35" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.399999999999999">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -7601,8 +8484,14 @@
       <c r="E36" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.399999999999999">
+      <c r="F36" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -7618,8 +8507,14 @@
       <c r="E37" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17.399999999999999">
+      <c r="F37" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.399999999999999">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -7635,8 +8530,14 @@
       <c r="E38" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.399999999999999">
+      <c r="F38" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.399999999999999">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -7652,8 +8553,14 @@
       <c r="E39" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.399999999999999">
+      <c r="F39" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.399999999999999">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -7669,8 +8576,14 @@
       <c r="E40" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.399999999999999">
+      <c r="F40" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -7686,8 +8599,14 @@
       <c r="E41" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.399999999999999">
+      <c r="F41" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.399999999999999">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -7703,8 +8622,14 @@
       <c r="E42" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.399999999999999">
+      <c r="F42" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.399999999999999">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -7720,8 +8645,14 @@
       <c r="E43" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.399999999999999">
+      <c r="F43" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.399999999999999">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -7737,8 +8668,14 @@
       <c r="E44" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.399999999999999">
+      <c r="F44" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -7754,8 +8691,14 @@
       <c r="E45" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999">
+      <c r="F45" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.399999999999999">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -7771,8 +8714,14 @@
       <c r="E46" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.399999999999999">
+      <c r="F46" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.399999999999999">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -7788,8 +8737,14 @@
       <c r="E47" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.399999999999999">
+      <c r="F47" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.399999999999999">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -7805,8 +8760,14 @@
       <c r="E48" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.399999999999999">
+      <c r="F48" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -7822,8 +8783,14 @@
       <c r="E49" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.399999999999999">
+      <c r="F49" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.399999999999999">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -7839,8 +8806,14 @@
       <c r="E50" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.399999999999999">
+      <c r="F50" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.399999999999999">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -7856,8 +8829,14 @@
       <c r="E51" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.399999999999999">
+      <c r="F51" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.399999999999999">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -7873,8 +8852,14 @@
       <c r="E52" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.399999999999999">
+      <c r="F52" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.399999999999999">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -7890,8 +8875,14 @@
       <c r="E53" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.399999999999999">
+      <c r="F53" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.399999999999999">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -7907,8 +8898,14 @@
       <c r="E54" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.399999999999999">
+      <c r="F54" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.399999999999999">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -7924,8 +8921,14 @@
       <c r="E55" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.399999999999999">
+      <c r="F55" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -7941,8 +8944,14 @@
       <c r="E56" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.399999999999999">
+      <c r="F56" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.399999999999999">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -7958,8 +8967,14 @@
       <c r="E57" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.399999999999999">
+      <c r="F57" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.399999999999999">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -7975,8 +8990,14 @@
       <c r="E58" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.399999999999999">
+      <c r="F58" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.399999999999999">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -7992,8 +9013,14 @@
       <c r="E59" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.399999999999999">
+      <c r="F59" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.399999999999999">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -8009,8 +9036,14 @@
       <c r="E60" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.399999999999999">
+      <c r="F60" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.399999999999999">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -8026,8 +9059,14 @@
       <c r="E61" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.399999999999999">
+      <c r="F61" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -8043,8 +9082,14 @@
       <c r="E62" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999">
+      <c r="F62" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.399999999999999">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -8059,6 +9104,12 @@
       </c>
       <c r="E63" s="4" t="s">
         <v>625</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8068,9 +9119,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -8079,9 +9132,10 @@
     <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>601</v>
       </c>
@@ -8097,8 +9151,14 @@
       <c r="E1" s="16" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="F1" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8114,8 +9174,14 @@
       <c r="E2" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999">
+      <c r="F2" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8131,8 +9197,14 @@
       <c r="E3" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999">
+      <c r="F3" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8148,8 +9220,14 @@
       <c r="E4" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+      <c r="F4" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8165,8 +9243,14 @@
       <c r="E5" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+      <c r="F5" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8182,8 +9266,14 @@
       <c r="E6" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+      <c r="F6" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8199,8 +9289,14 @@
       <c r="E7" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+      <c r="F7" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8216,8 +9312,14 @@
       <c r="E8" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+      <c r="F8" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8233,8 +9335,14 @@
       <c r="E9" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999">
+      <c r="F9" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -8250,8 +9358,14 @@
       <c r="E10" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="F10" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -8267,8 +9381,14 @@
       <c r="E11" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
+      <c r="F11" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -8284,8 +9404,14 @@
       <c r="E12" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999">
+      <c r="F12" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8301,8 +9427,14 @@
       <c r="E13" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999">
+      <c r="F13" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8318,8 +9450,14 @@
       <c r="E14" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999">
+      <c r="F14" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -8335,8 +9473,14 @@
       <c r="E15" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999">
+      <c r="F15" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8352,8 +9496,14 @@
       <c r="E16" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999">
+      <c r="F16" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.399999999999999">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -8369,8 +9519,14 @@
       <c r="E17" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="F17" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.399999999999999">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -8386,8 +9542,14 @@
       <c r="E18" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
+      <c r="F18" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -8403,8 +9565,14 @@
       <c r="E19" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
+      <c r="F19" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.399999999999999">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8420,8 +9588,14 @@
       <c r="E20" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999">
+      <c r="F20" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8437,8 +9611,14 @@
       <c r="E21" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999">
+      <c r="F21" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.399999999999999">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8454,8 +9634,14 @@
       <c r="E22" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999">
+      <c r="F22" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8471,8 +9657,14 @@
       <c r="E23" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999">
+      <c r="F23" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.399999999999999">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8488,8 +9680,14 @@
       <c r="E24" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999">
+      <c r="F24" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.399999999999999">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8505,8 +9703,14 @@
       <c r="E25" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999">
+      <c r="F25" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.399999999999999">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8522,8 +9726,14 @@
       <c r="E26" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999">
+      <c r="F26" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8539,8 +9749,14 @@
       <c r="E27" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999">
+      <c r="F27" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.399999999999999">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8556,8 +9772,14 @@
       <c r="E28" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999">
+      <c r="F28" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.399999999999999">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -8573,8 +9795,14 @@
       <c r="E29" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.399999999999999">
+      <c r="F29" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -8590,8 +9818,14 @@
       <c r="E30" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999">
+      <c r="F30" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.399999999999999">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -8607,8 +9841,14 @@
       <c r="E31" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.399999999999999">
+      <c r="F31" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -8624,8 +9864,14 @@
       <c r="E32" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.399999999999999">
+      <c r="F32" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -8641,8 +9887,14 @@
       <c r="E33" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.399999999999999">
+      <c r="F33" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.399999999999999">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -8658,8 +9910,14 @@
       <c r="E34" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.399999999999999">
+      <c r="F34" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -8675,8 +9933,14 @@
       <c r="E35" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.399999999999999">
+      <c r="F35" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.399999999999999">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -8692,8 +9956,14 @@
       <c r="E36" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.399999999999999">
+      <c r="F36" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -8709,8 +9979,14 @@
       <c r="E37" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17.399999999999999">
+      <c r="F37" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.399999999999999">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8726,8 +10002,14 @@
       <c r="E38" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.399999999999999">
+      <c r="F38" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.399999999999999">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -8743,8 +10025,14 @@
       <c r="E39" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.399999999999999">
+      <c r="F39" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.399999999999999">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8760,8 +10048,14 @@
       <c r="E40" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.399999999999999">
+      <c r="F40" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8777,8 +10071,14 @@
       <c r="E41" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.399999999999999">
+      <c r="F41" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.399999999999999">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -8794,8 +10094,14 @@
       <c r="E42" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.399999999999999">
+      <c r="F42" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.399999999999999">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -8811,8 +10117,14 @@
       <c r="E43" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.399999999999999">
+      <c r="F43" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.399999999999999">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -8828,8 +10140,14 @@
       <c r="E44" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.399999999999999">
+      <c r="F44" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -8845,8 +10163,14 @@
       <c r="E45" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999">
+      <c r="F45" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.399999999999999">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -8862,8 +10186,14 @@
       <c r="E46" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.399999999999999">
+      <c r="F46" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.399999999999999">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -8879,8 +10209,14 @@
       <c r="E47" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.399999999999999">
+      <c r="F47" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.399999999999999">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -8896,8 +10232,14 @@
       <c r="E48" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.399999999999999">
+      <c r="F48" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -8913,8 +10255,14 @@
       <c r="E49" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.399999999999999">
+      <c r="F49" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.399999999999999">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -8930,8 +10278,14 @@
       <c r="E50" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.399999999999999">
+      <c r="F50" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.399999999999999">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -8947,8 +10301,14 @@
       <c r="E51" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.399999999999999">
+      <c r="F51" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.399999999999999">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -8964,8 +10324,14 @@
       <c r="E52" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.399999999999999">
+      <c r="F52" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.399999999999999">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -8981,8 +10347,14 @@
       <c r="E53" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.399999999999999">
+      <c r="F53" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.399999999999999">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -8998,8 +10370,14 @@
       <c r="E54" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.399999999999999">
+      <c r="F54" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.399999999999999">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9015,8 +10393,14 @@
       <c r="E55" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.399999999999999">
+      <c r="F55" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9032,8 +10416,14 @@
       <c r="E56" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.399999999999999">
+      <c r="F56" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.399999999999999">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9049,8 +10439,14 @@
       <c r="E57" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.399999999999999">
+      <c r="F57" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.399999999999999">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9066,8 +10462,14 @@
       <c r="E58" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.399999999999999">
+      <c r="F58" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.399999999999999">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9083,8 +10485,14 @@
       <c r="E59" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.399999999999999">
+      <c r="F59" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.399999999999999">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9100,8 +10508,14 @@
       <c r="E60" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.399999999999999">
+      <c r="F60" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.399999999999999">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9117,8 +10531,14 @@
       <c r="E61" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.399999999999999">
+      <c r="F61" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -9134,8 +10554,14 @@
       <c r="E62" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999">
+      <c r="F62" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.399999999999999">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -9151,8 +10577,14 @@
       <c r="E63" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.399999999999999">
+      <c r="F63" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.399999999999999">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -9168,8 +10600,14 @@
       <c r="E64" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.399999999999999">
+      <c r="F64" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.399999999999999">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -9185,8 +10623,14 @@
       <c r="E65" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.399999999999999">
+      <c r="F65" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.399999999999999">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -9202,8 +10646,14 @@
       <c r="E66" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.399999999999999">
+      <c r="F66" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.399999999999999">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -9219,8 +10669,14 @@
       <c r="E67" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.399999999999999">
+      <c r="F67" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.399999999999999">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -9236,8 +10692,14 @@
       <c r="E68" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.399999999999999">
+      <c r="F68" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.399999999999999">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -9253,8 +10715,14 @@
       <c r="E69" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.399999999999999">
+      <c r="F69" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.399999999999999">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -9270,8 +10738,14 @@
       <c r="E70" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.399999999999999">
+      <c r="F70" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.399999999999999">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -9287,8 +10761,14 @@
       <c r="E71" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.399999999999999">
+      <c r="F71" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.399999999999999">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -9304,8 +10784,14 @@
       <c r="E72" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.399999999999999">
+      <c r="F72" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.399999999999999">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -9321,8 +10807,14 @@
       <c r="E73" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.399999999999999">
+      <c r="F73" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.399999999999999">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -9338,8 +10830,14 @@
       <c r="E74" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.399999999999999">
+      <c r="F74" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.399999999999999">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -9355,8 +10853,14 @@
       <c r="E75" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.399999999999999">
+      <c r="F75" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.399999999999999">
       <c r="A76" s="4"/>
     </row>
   </sheetData>
@@ -9366,10 +10870,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A102"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9379,9 +10883,10 @@
     <col min="3" max="3" width="52.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>601</v>
       </c>
@@ -9397,8 +10902,14 @@
       <c r="E1" s="16" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="F1" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9414,8 +10925,14 @@
       <c r="E2" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999">
+      <c r="F2" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9431,8 +10948,14 @@
       <c r="E3" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999">
+      <c r="F3" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9448,8 +10971,14 @@
       <c r="E4" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+      <c r="F4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9465,8 +10994,14 @@
       <c r="E5" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+      <c r="F5" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9482,8 +11017,14 @@
       <c r="E6" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+      <c r="F6" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9499,8 +11040,14 @@
       <c r="E7" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+      <c r="F7" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9516,8 +11063,14 @@
       <c r="E8" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+      <c r="F8" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9533,8 +11086,14 @@
       <c r="E9" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999">
+      <c r="F9" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9550,8 +11109,14 @@
       <c r="E10" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="F10" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9567,8 +11132,14 @@
       <c r="E11" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
+      <c r="F11" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9584,8 +11155,14 @@
       <c r="E12" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999">
+      <c r="F12" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9601,8 +11178,14 @@
       <c r="E13" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999">
+      <c r="F13" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9618,8 +11201,14 @@
       <c r="E14" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999">
+      <c r="F14" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9635,8 +11224,14 @@
       <c r="E15" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999">
+      <c r="F15" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -9652,8 +11247,14 @@
       <c r="E16" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999">
+      <c r="F16" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.399999999999999">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -9669,8 +11270,14 @@
       <c r="E17" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="F17" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.399999999999999">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -9686,8 +11293,14 @@
       <c r="E18" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
+      <c r="F18" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -9703,8 +11316,14 @@
       <c r="E19" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
+      <c r="F19" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.399999999999999">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -9720,8 +11339,14 @@
       <c r="E20" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999">
+      <c r="F20" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -9737,8 +11362,14 @@
       <c r="E21" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999">
+      <c r="F21" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.399999999999999">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -9754,8 +11385,14 @@
       <c r="E22" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999">
+      <c r="F22" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -9771,8 +11408,14 @@
       <c r="E23" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999">
+      <c r="F23" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.399999999999999">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -9788,8 +11431,14 @@
       <c r="E24" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999">
+      <c r="F24" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.399999999999999">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -9805,8 +11454,14 @@
       <c r="E25" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999">
+      <c r="F25" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.399999999999999">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -9822,8 +11477,14 @@
       <c r="E26" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999">
+      <c r="F26" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -9839,8 +11500,14 @@
       <c r="E27" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999">
+      <c r="F27" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.399999999999999">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -9856,8 +11523,14 @@
       <c r="E28" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999">
+      <c r="F28" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.399999999999999">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9873,8 +11546,14 @@
       <c r="E29" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.399999999999999">
+      <c r="F29" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9890,8 +11569,14 @@
       <c r="E30" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999">
+      <c r="F30" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.399999999999999">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9907,8 +11592,14 @@
       <c r="E31" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.399999999999999">
+      <c r="F31" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9924,8 +11615,14 @@
       <c r="E32" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.399999999999999">
+      <c r="F32" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9941,8 +11638,14 @@
       <c r="E33" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.399999999999999">
+      <c r="F33" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.399999999999999">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9958,8 +11661,14 @@
       <c r="E34" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.399999999999999">
+      <c r="F34" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9975,8 +11684,14 @@
       <c r="E35" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.399999999999999">
+      <c r="F35" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.399999999999999">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9992,8 +11707,14 @@
       <c r="E36" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.399999999999999">
+      <c r="F36" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -10009,8 +11730,14 @@
       <c r="E37" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17.399999999999999">
+      <c r="F37" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.399999999999999">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -10026,8 +11753,14 @@
       <c r="E38" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.399999999999999">
+      <c r="F38" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.399999999999999">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -10043,8 +11776,14 @@
       <c r="E39" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.399999999999999">
+      <c r="F39" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.399999999999999">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -10060,8 +11799,14 @@
       <c r="E40" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.399999999999999">
+      <c r="F40" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -10077,8 +11822,14 @@
       <c r="E41" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.399999999999999">
+      <c r="F41" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.399999999999999">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -10094,8 +11845,14 @@
       <c r="E42" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.399999999999999">
+      <c r="F42" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.399999999999999">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -10111,8 +11868,14 @@
       <c r="E43" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.399999999999999">
+      <c r="F43" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.399999999999999">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -10128,8 +11891,14 @@
       <c r="E44" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.399999999999999">
+      <c r="F44" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -10145,8 +11914,14 @@
       <c r="E45" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999">
+      <c r="F45" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.399999999999999">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -10162,8 +11937,14 @@
       <c r="E46" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.399999999999999">
+      <c r="F46" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.399999999999999">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -10179,8 +11960,14 @@
       <c r="E47" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.399999999999999">
+      <c r="F47" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.399999999999999">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -10196,8 +11983,14 @@
       <c r="E48" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.399999999999999">
+      <c r="F48" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -10213,8 +12006,14 @@
       <c r="E49" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.399999999999999">
+      <c r="F49" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.399999999999999">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -10230,8 +12029,14 @@
       <c r="E50" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.399999999999999">
+      <c r="F50" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.399999999999999">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -10247,8 +12052,14 @@
       <c r="E51" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.399999999999999">
+      <c r="F51" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.399999999999999">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -10264,8 +12075,14 @@
       <c r="E52" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.399999999999999">
+      <c r="F52" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.399999999999999">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -10281,8 +12098,14 @@
       <c r="E53" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.399999999999999">
+      <c r="F53" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.399999999999999">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -10298,8 +12121,14 @@
       <c r="E54" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.399999999999999">
+      <c r="F54" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.399999999999999">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -10315,8 +12144,14 @@
       <c r="E55" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.399999999999999">
+      <c r="F55" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10332,8 +12167,14 @@
       <c r="E56" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.399999999999999">
+      <c r="F56" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.399999999999999">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10349,8 +12190,14 @@
       <c r="E57" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.399999999999999">
+      <c r="F57" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.399999999999999">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10366,8 +12213,14 @@
       <c r="E58" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.399999999999999">
+      <c r="F58" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.399999999999999">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10383,8 +12236,14 @@
       <c r="E59" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.399999999999999">
+      <c r="F59" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.399999999999999">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10400,8 +12259,14 @@
       <c r="E60" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.399999999999999">
+      <c r="F60" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.399999999999999">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10417,8 +12282,14 @@
       <c r="E61" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.399999999999999">
+      <c r="F61" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10434,8 +12305,14 @@
       <c r="E62" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999">
+      <c r="F62" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.399999999999999">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10451,8 +12328,14 @@
       <c r="E63" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.399999999999999">
+      <c r="F63" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.399999999999999">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10468,8 +12351,14 @@
       <c r="E64" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.399999999999999">
+      <c r="F64" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.399999999999999">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10485,8 +12374,14 @@
       <c r="E65" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.399999999999999">
+      <c r="F65" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.399999999999999">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10502,8 +12397,14 @@
       <c r="E66" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.399999999999999">
+      <c r="F66" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.399999999999999">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10519,8 +12420,14 @@
       <c r="E67" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.399999999999999">
+      <c r="F67" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.399999999999999">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10536,8 +12443,14 @@
       <c r="E68" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.399999999999999">
+      <c r="F68" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.399999999999999">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10553,8 +12466,14 @@
       <c r="E69" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.399999999999999">
+      <c r="F69" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.399999999999999">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10570,8 +12489,14 @@
       <c r="E70" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.399999999999999">
+      <c r="F70" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.399999999999999">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10587,8 +12512,14 @@
       <c r="E71" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.399999999999999">
+      <c r="F71" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.399999999999999">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10604,8 +12535,14 @@
       <c r="E72" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.399999999999999">
+      <c r="F72" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.399999999999999">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10621,8 +12558,14 @@
       <c r="E73" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.399999999999999">
+      <c r="F73" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.399999999999999">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10638,8 +12581,14 @@
       <c r="E74" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.399999999999999">
+      <c r="F74" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.399999999999999">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10655,8 +12604,14 @@
       <c r="E75" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.399999999999999">
+      <c r="F75" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.399999999999999">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10672,8 +12627,14 @@
       <c r="E76" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.399999999999999">
+      <c r="F76" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.399999999999999">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10689,8 +12650,14 @@
       <c r="E77" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.399999999999999">
+      <c r="F77" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.399999999999999">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10706,8 +12673,14 @@
       <c r="E78" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.399999999999999">
+      <c r="F78" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.399999999999999">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10723,8 +12696,14 @@
       <c r="E79" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="17.399999999999999">
+      <c r="F79" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.399999999999999">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10740,8 +12719,14 @@
       <c r="E80" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.399999999999999">
+      <c r="F80" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.399999999999999">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10757,8 +12742,14 @@
       <c r="E81" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.399999999999999">
+      <c r="F81" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17.399999999999999">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10774,8 +12765,14 @@
       <c r="E82" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.399999999999999">
+      <c r="F82" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.399999999999999">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10791,8 +12788,14 @@
       <c r="E83" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.399999999999999">
+      <c r="F83" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.399999999999999">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10808,8 +12811,14 @@
       <c r="E84" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.399999999999999">
+      <c r="F84" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.399999999999999">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -10825,8 +12834,14 @@
       <c r="E85" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.399999999999999">
+      <c r="F85" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.399999999999999">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -10842,8 +12857,14 @@
       <c r="E86" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.399999999999999">
+      <c r="F86" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.399999999999999">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -10859,8 +12880,14 @@
       <c r="E87" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.399999999999999">
+      <c r="F87" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.399999999999999">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -10876,8 +12903,14 @@
       <c r="E88" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.399999999999999">
+      <c r="F88" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.399999999999999">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -10893,8 +12926,14 @@
       <c r="E89" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="17.399999999999999">
+      <c r="F89" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.399999999999999">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -10910,8 +12949,14 @@
       <c r="E90" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.399999999999999">
+      <c r="F90" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.399999999999999">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -10927,8 +12972,14 @@
       <c r="E91" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.399999999999999">
+      <c r="F91" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.399999999999999">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -10944,8 +12995,14 @@
       <c r="E92" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.399999999999999">
+      <c r="F92" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.399999999999999">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -10961,8 +13018,14 @@
       <c r="E93" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.399999999999999">
+      <c r="F93" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.399999999999999">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -10978,8 +13041,14 @@
       <c r="E94" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.399999999999999">
+      <c r="F94" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.399999999999999">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -10995,8 +13064,14 @@
       <c r="E95" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="17.399999999999999">
+      <c r="F95" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.399999999999999">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -11012,8 +13087,14 @@
       <c r="E96" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="17.399999999999999">
+      <c r="F96" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.399999999999999">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -11029,8 +13110,14 @@
       <c r="E97" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="17.399999999999999">
+      <c r="F97" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.399999999999999">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -11046,8 +13133,14 @@
       <c r="E98" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="17.399999999999999">
+      <c r="F98" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.399999999999999">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -11063,8 +13156,14 @@
       <c r="E99" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="17.399999999999999">
+      <c r="F99" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.399999999999999">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -11080,8 +13179,14 @@
       <c r="E100" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="17.399999999999999">
+      <c r="F100" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.399999999999999">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -11097,8 +13202,14 @@
       <c r="E101" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="17.399999999999999">
+      <c r="F101" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.399999999999999">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -11113,6 +13224,12 @@
       </c>
       <c r="E102" s="4" t="s">
         <v>620</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G102">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -11122,10 +13239,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11135,9 +13252,11 @@
     <col min="3" max="3" width="49.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>601</v>
       </c>
@@ -11153,8 +13272,14 @@
       <c r="E1" s="16" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="F1" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -11170,8 +13295,14 @@
       <c r="E2" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999">
+      <c r="F2" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -11187,8 +13318,14 @@
       <c r="E3" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999">
+      <c r="F3" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -11204,8 +13341,14 @@
       <c r="E4" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999">
+      <c r="F4" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -11221,8 +13364,14 @@
       <c r="E5" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999">
+      <c r="F5" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -11238,8 +13387,14 @@
       <c r="E6" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+      <c r="F6" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -11255,8 +13410,14 @@
       <c r="E7" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+      <c r="F7" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.399999999999999">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11272,8 +13433,14 @@
       <c r="E8" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+      <c r="F8" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -11289,8 +13456,14 @@
       <c r="E9" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999">
+      <c r="F9" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -11306,8 +13479,14 @@
       <c r="E10" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
+      <c r="F10" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -11323,8 +13502,14 @@
       <c r="E11" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999">
+      <c r="F11" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.399999999999999">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -11340,8 +13525,14 @@
       <c r="E12" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999">
+      <c r="F12" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -11357,8 +13548,14 @@
       <c r="E13" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999">
+      <c r="F13" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.399999999999999">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -11374,8 +13571,14 @@
       <c r="E14" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999">
+      <c r="F14" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.399999999999999">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -11391,8 +13594,14 @@
       <c r="E15" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999">
+      <c r="F15" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -11408,8 +13617,14 @@
       <c r="E16" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999">
+      <c r="F16" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.399999999999999">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -11425,8 +13640,14 @@
       <c r="E17" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
+      <c r="F17" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.399999999999999">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -11442,8 +13663,14 @@
       <c r="E18" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
+      <c r="F18" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -11459,8 +13686,14 @@
       <c r="E19" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
+      <c r="F19" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.399999999999999">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11476,8 +13709,14 @@
       <c r="E20" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999">
+      <c r="F20" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -11493,8 +13732,14 @@
       <c r="E21" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999">
+      <c r="F21" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.399999999999999">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -11510,8 +13755,14 @@
       <c r="E22" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999">
+      <c r="F22" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -11527,8 +13778,14 @@
       <c r="E23" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999">
+      <c r="F23" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.399999999999999">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -11544,8 +13801,14 @@
       <c r="E24" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999">
+      <c r="F24" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.399999999999999">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -11561,8 +13824,14 @@
       <c r="E25" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999">
+      <c r="F25" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.399999999999999">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -11578,8 +13847,14 @@
       <c r="E26" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999">
+      <c r="F26" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.399999999999999">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -11595,8 +13870,14 @@
       <c r="E27" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999">
+      <c r="F27" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.399999999999999">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -11612,8 +13893,14 @@
       <c r="E28" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999">
+      <c r="F28" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.399999999999999">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -11629,8 +13916,14 @@
       <c r="E29" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.399999999999999">
+      <c r="F29" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -11646,8 +13939,14 @@
       <c r="E30" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999">
+      <c r="F30" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.399999999999999">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -11663,8 +13962,14 @@
       <c r="E31" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.399999999999999">
+      <c r="F31" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.399999999999999">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -11680,8 +13985,14 @@
       <c r="E32" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.399999999999999">
+      <c r="F32" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -11697,8 +14008,14 @@
       <c r="E33" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.399999999999999">
+      <c r="F33" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.399999999999999">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -11714,8 +14031,14 @@
       <c r="E34" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.399999999999999">
+      <c r="F34" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -11731,8 +14054,14 @@
       <c r="E35" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.399999999999999">
+      <c r="F35" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.399999999999999">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -11748,8 +14077,14 @@
       <c r="E36" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.399999999999999">
+      <c r="F36" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -11765,8 +14100,14 @@
       <c r="E37" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17.399999999999999">
+      <c r="F37" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.399999999999999">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -11782,8 +14123,14 @@
       <c r="E38" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.399999999999999">
+      <c r="F38" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.399999999999999">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -11799,8 +14146,14 @@
       <c r="E39" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.399999999999999">
+      <c r="F39" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.399999999999999">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -11816,8 +14169,14 @@
       <c r="E40" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.399999999999999">
+      <c r="F40" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -11833,8 +14192,14 @@
       <c r="E41" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.399999999999999">
+      <c r="F41" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.399999999999999">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -11850,8 +14215,14 @@
       <c r="E42" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.399999999999999">
+      <c r="F42" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.399999999999999">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -11867,8 +14238,14 @@
       <c r="E43" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.399999999999999">
+      <c r="F43" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.399999999999999">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -11884,8 +14261,14 @@
       <c r="E44" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.399999999999999">
+      <c r="F44" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -11901,8 +14284,14 @@
       <c r="E45" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999">
+      <c r="F45" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.399999999999999">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -11918,8 +14307,14 @@
       <c r="E46" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.399999999999999">
+      <c r="F46" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.399999999999999">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -11935,8 +14330,14 @@
       <c r="E47" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.399999999999999">
+      <c r="F47" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.399999999999999">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -11952,8 +14353,14 @@
       <c r="E48" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.399999999999999">
+      <c r="F48" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -11969,8 +14376,14 @@
       <c r="E49" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.399999999999999">
+      <c r="F49" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.399999999999999">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -11986,8 +14399,14 @@
       <c r="E50" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.399999999999999">
+      <c r="F50" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.399999999999999">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -12003,8 +14422,14 @@
       <c r="E51" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.399999999999999">
+      <c r="F51" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.399999999999999">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -12020,8 +14445,14 @@
       <c r="E52" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.399999999999999">
+      <c r="F52" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.399999999999999">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -12037,8 +14468,14 @@
       <c r="E53" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.399999999999999">
+      <c r="F53" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.399999999999999">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -12054,8 +14491,14 @@
       <c r="E54" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.399999999999999">
+      <c r="F54" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.399999999999999">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -12071,8 +14514,14 @@
       <c r="E55" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.399999999999999">
+      <c r="F55" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.399999999999999">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -12088,8 +14537,14 @@
       <c r="E56" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.399999999999999">
+      <c r="F56" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.399999999999999">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -12105,8 +14560,14 @@
       <c r="E57" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.399999999999999">
+      <c r="F57" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.399999999999999">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -12122,8 +14583,14 @@
       <c r="E58" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.399999999999999">
+      <c r="F58" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.399999999999999">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -12139,8 +14606,14 @@
       <c r="E59" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.399999999999999">
+      <c r="F59" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.399999999999999">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -12156,8 +14629,14 @@
       <c r="E60" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.399999999999999">
+      <c r="F60" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.399999999999999">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -12173,8 +14652,14 @@
       <c r="E61" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.399999999999999">
+      <c r="F61" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -12190,8 +14675,14 @@
       <c r="E62" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999">
+      <c r="F62" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.399999999999999">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -12207,8 +14698,14 @@
       <c r="E63" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.399999999999999">
+      <c r="F63" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.399999999999999">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -12224,8 +14721,14 @@
       <c r="E64" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.399999999999999">
+      <c r="F64" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.399999999999999">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -12241,8 +14744,14 @@
       <c r="E65" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.399999999999999">
+      <c r="F65" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.399999999999999">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -12258,8 +14767,14 @@
       <c r="E66" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.399999999999999">
+      <c r="F66" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.399999999999999">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -12275,8 +14790,14 @@
       <c r="E67" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.399999999999999">
+      <c r="F67" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.399999999999999">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -12292,8 +14813,14 @@
       <c r="E68" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.399999999999999">
+      <c r="F68" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.399999999999999">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -12309,8 +14836,14 @@
       <c r="E69" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.399999999999999">
+      <c r="F69" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.399999999999999">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -12326,8 +14859,14 @@
       <c r="E70" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.399999999999999">
+      <c r="F70" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.399999999999999">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -12343,8 +14882,14 @@
       <c r="E71" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.399999999999999">
+      <c r="F71" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.399999999999999">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -12360,8 +14905,14 @@
       <c r="E72" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.399999999999999">
+      <c r="F72" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.399999999999999">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -12377,8 +14928,14 @@
       <c r="E73" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.399999999999999">
+      <c r="F73" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.399999999999999">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -12394,8 +14951,14 @@
       <c r="E74" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.399999999999999">
+      <c r="F74" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.399999999999999">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -12411,8 +14974,14 @@
       <c r="E75" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.399999999999999">
+      <c r="F75" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.399999999999999">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -12428,8 +14997,14 @@
       <c r="E76" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.399999999999999">
+      <c r="F76" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.399999999999999">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -12445,8 +15020,14 @@
       <c r="E77" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.399999999999999">
+      <c r="F77" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.399999999999999">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -12462,8 +15043,14 @@
       <c r="E78" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.399999999999999">
+      <c r="F78" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.399999999999999">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -12479,8 +15066,14 @@
       <c r="E79" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="17.399999999999999">
+      <c r="F79" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.399999999999999">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -12496,8 +15089,14 @@
       <c r="E80" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.399999999999999">
+      <c r="F80" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.399999999999999">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -12513,8 +15112,14 @@
       <c r="E81" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.399999999999999">
+      <c r="F81" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17.399999999999999">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -12530,8 +15135,14 @@
       <c r="E82" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.399999999999999">
+      <c r="F82" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.399999999999999">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -12547,8 +15158,14 @@
       <c r="E83" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.399999999999999">
+      <c r="F83" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.399999999999999">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -12564,8 +15181,14 @@
       <c r="E84" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.399999999999999">
+      <c r="F84" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.399999999999999">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -12581,8 +15204,14 @@
       <c r="E85" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.399999999999999">
+      <c r="F85" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.399999999999999">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -12598,8 +15227,14 @@
       <c r="E86" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.399999999999999">
+      <c r="F86" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.399999999999999">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -12615,8 +15250,14 @@
       <c r="E87" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.399999999999999">
+      <c r="F87" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.399999999999999">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -12632,8 +15273,14 @@
       <c r="E88" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.399999999999999">
+      <c r="F88" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.399999999999999">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -12649,8 +15296,14 @@
       <c r="E89" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="17.399999999999999">
+      <c r="F89" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.399999999999999">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -12666,8 +15319,14 @@
       <c r="E90" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.399999999999999">
+      <c r="F90" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.399999999999999">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -12683,8 +15342,14 @@
       <c r="E91" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.399999999999999">
+      <c r="F91" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.399999999999999">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -12700,8 +15365,14 @@
       <c r="E92" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.399999999999999">
+      <c r="F92" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.399999999999999">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -12717,8 +15388,14 @@
       <c r="E93" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.399999999999999">
+      <c r="F93" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.399999999999999">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -12734,8 +15411,14 @@
       <c r="E94" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.399999999999999">
+      <c r="F94" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.399999999999999">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -12751,8 +15434,14 @@
       <c r="E95" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="17.399999999999999">
+      <c r="F95" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.399999999999999">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -12768,8 +15457,14 @@
       <c r="E96" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="17.399999999999999">
+      <c r="F96" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.399999999999999">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -12785,8 +15480,14 @@
       <c r="E97" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="17.399999999999999">
+      <c r="F97" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.399999999999999">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -12802,8 +15503,14 @@
       <c r="E98" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="17.399999999999999">
+      <c r="F98" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.399999999999999">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -12819,8 +15526,14 @@
       <c r="E99" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="17.399999999999999">
+      <c r="F99" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.399999999999999">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -12836,8 +15549,14 @@
       <c r="E100" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="17.399999999999999">
+      <c r="F100" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.399999999999999">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -12853,8 +15572,14 @@
       <c r="E101" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="17.399999999999999">
+      <c r="F101" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.399999999999999">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -12870,8 +15595,14 @@
       <c r="E102" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="17.399999999999999">
+      <c r="F102" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17.399999999999999">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -12887,8 +15618,14 @@
       <c r="E103" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="17.399999999999999">
+      <c r="F103" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17.399999999999999">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -12904,8 +15641,14 @@
       <c r="E104" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="17.399999999999999">
+      <c r="F104" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17.399999999999999">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -12921,8 +15664,14 @@
       <c r="E105" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.399999999999999">
+      <c r="F105" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.399999999999999">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -12938,8 +15687,14 @@
       <c r="E106" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="17.399999999999999">
+      <c r="F106" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="17.399999999999999">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -12955,8 +15710,14 @@
       <c r="E107" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="17.399999999999999">
+      <c r="F107" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17.399999999999999">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -12972,8 +15733,14 @@
       <c r="E108" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="17.399999999999999">
+      <c r="F108" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.399999999999999">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -12988,6 +15755,12 @@
       </c>
       <c r="E109" s="4" t="s">
         <v>621</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
